--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Tnc-Ptprz1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Tnc-Ptprz1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,15 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,185 +528,1115 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.634738961182449</v>
+        <v>5.215822</v>
       </c>
       <c r="H2">
-        <v>0.634738961182449</v>
+        <v>15.647466</v>
       </c>
       <c r="I2">
-        <v>0.005354333876475</v>
+        <v>0.04031814991753076</v>
       </c>
       <c r="J2">
-        <v>0.005354333876475</v>
+        <v>0.04031814991753075</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>4.30546451893599</v>
+        <v>0.01848533333333334</v>
       </c>
       <c r="N2">
-        <v>4.30546451893599</v>
+        <v>0.05545600000000001</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.002735469863414935</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.002735469863414935</v>
       </c>
       <c r="Q2">
-        <v>2.732846076157323</v>
+        <v>0.09641620827733335</v>
       </c>
       <c r="R2">
-        <v>2.732846076157323</v>
+        <v>0.867745874496</v>
       </c>
       <c r="S2">
-        <v>0.005354333876475</v>
+        <v>0.0001102890840480507</v>
       </c>
       <c r="T2">
-        <v>0.005354333876475</v>
+        <v>0.0001102890840480507</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>83.6702630614527</v>
+        <v>5.215822</v>
       </c>
       <c r="H3">
-        <v>83.6702630614527</v>
+        <v>15.647466</v>
       </c>
       <c r="I3">
-        <v>0.7057996300226143</v>
+        <v>0.04031814991753076</v>
       </c>
       <c r="J3">
-        <v>0.7057996300226143</v>
+        <v>0.04031814991753075</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>4.30546451893599</v>
+        <v>0.008616666666666667</v>
       </c>
       <c r="N3">
-        <v>4.30546451893599</v>
+        <v>0.02585</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.001275099105043207</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.001275099105043207</v>
       </c>
       <c r="Q3">
-        <v>360.2393489011252</v>
+        <v>0.04494299956666667</v>
       </c>
       <c r="R3">
-        <v>360.2393489011252</v>
+        <v>0.4044869961</v>
       </c>
       <c r="S3">
-        <v>0.7057996300226143</v>
+        <v>5.14096368768413E-05</v>
       </c>
       <c r="T3">
-        <v>0.7057996300226143</v>
+        <v>5.14096368768413E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>5.215822</v>
+      </c>
+      <c r="H4">
+        <v>15.647466</v>
+      </c>
+      <c r="I4">
+        <v>0.04031814991753076</v>
+      </c>
+      <c r="J4">
+        <v>0.04031814991753075</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>6.730542666666667</v>
+      </c>
+      <c r="N4">
+        <v>20.191628</v>
+      </c>
+      <c r="O4">
+        <v>0.9959894310315418</v>
+      </c>
+      <c r="P4">
+        <v>0.9959894310315418</v>
+      </c>
+      <c r="Q4">
+        <v>35.10531251273867</v>
+      </c>
+      <c r="R4">
+        <v>315.947812614648</v>
+      </c>
+      <c r="S4">
+        <v>0.04015645119660587</v>
+      </c>
+      <c r="T4">
+        <v>0.04015645119660586</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>84.97076433333332</v>
+      </c>
+      <c r="H5">
+        <v>254.912293</v>
+      </c>
+      <c r="I5">
+        <v>0.6568214971673704</v>
+      </c>
+      <c r="J5">
+        <v>0.6568214971673704</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.01848533333333334</v>
+      </c>
+      <c r="N5">
+        <v>0.05545600000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.002735469863414935</v>
+      </c>
+      <c r="P5">
+        <v>0.002735469863414935</v>
+      </c>
+      <c r="Q5">
+        <v>1.570712902289778</v>
+      </c>
+      <c r="R5">
+        <v>14.136416120608</v>
+      </c>
+      <c r="S5">
+        <v>0.00179671541114442</v>
+      </c>
+      <c r="T5">
+        <v>0.00179671541114442</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>84.97076433333332</v>
+      </c>
+      <c r="H6">
+        <v>254.912293</v>
+      </c>
+      <c r="I6">
+        <v>0.6568214971673704</v>
+      </c>
+      <c r="J6">
+        <v>0.6568214971673704</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.008616666666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.02585</v>
+      </c>
+      <c r="O6">
+        <v>0.001275099105043207</v>
+      </c>
+      <c r="P6">
+        <v>0.001275099105043207</v>
+      </c>
+      <c r="Q6">
+        <v>0.7321647526722221</v>
+      </c>
+      <c r="R6">
+        <v>6.589482774049999</v>
+      </c>
+      <c r="S6">
+        <v>0.000837512503211253</v>
+      </c>
+      <c r="T6">
+        <v>0.0008375125032112532</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>84.97076433333332</v>
+      </c>
+      <c r="H7">
+        <v>254.912293</v>
+      </c>
+      <c r="I7">
+        <v>0.6568214971673704</v>
+      </c>
+      <c r="J7">
+        <v>0.6568214971673704</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>6.730542666666667</v>
+      </c>
+      <c r="N7">
+        <v>20.191628</v>
+      </c>
+      <c r="O7">
+        <v>0.9959894310315418</v>
+      </c>
+      <c r="P7">
+        <v>0.9959894310315418</v>
+      </c>
+      <c r="Q7">
+        <v>571.8993547647782</v>
+      </c>
+      <c r="R7">
+        <v>5147.094192883004</v>
+      </c>
+      <c r="S7">
+        <v>0.6541872692530146</v>
+      </c>
+      <c r="T7">
+        <v>0.6541872692530146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.03355766666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.100673</v>
+      </c>
+      <c r="I8">
+        <v>0.0002593997716082319</v>
+      </c>
+      <c r="J8">
+        <v>0.0002593997716082318</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.01848533333333334</v>
+      </c>
+      <c r="N8">
+        <v>0.05545600000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.002735469863414935</v>
+      </c>
+      <c r="P8">
+        <v>0.002735469863414935</v>
+      </c>
+      <c r="Q8">
+        <v>0.0006203246542222223</v>
+      </c>
+      <c r="R8">
+        <v>0.005582921888</v>
+      </c>
+      <c r="S8">
+        <v>7.095802578110355E-07</v>
+      </c>
+      <c r="T8">
+        <v>7.095802578110354E-07</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.03355766666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.100673</v>
+      </c>
+      <c r="I9">
+        <v>0.0002593997716082319</v>
+      </c>
+      <c r="J9">
+        <v>0.0002593997716082318</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.008616666666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.02585</v>
+      </c>
+      <c r="O9">
+        <v>0.001275099105043207</v>
+      </c>
+      <c r="P9">
+        <v>0.001275099105043207</v>
+      </c>
+      <c r="Q9">
+        <v>0.0002891552277777778</v>
+      </c>
+      <c r="R9">
+        <v>0.00260239705</v>
+      </c>
+      <c r="S9">
+        <v>3.307604166260687E-07</v>
+      </c>
+      <c r="T9">
+        <v>3.307604166260687E-07</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.03355766666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.100673</v>
+      </c>
+      <c r="I10">
+        <v>0.0002593997716082319</v>
+      </c>
+      <c r="J10">
+        <v>0.0002593997716082318</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>6.730542666666667</v>
+      </c>
+      <c r="N10">
+        <v>20.191628</v>
+      </c>
+      <c r="O10">
+        <v>0.9959894310315418</v>
+      </c>
+      <c r="P10">
+        <v>0.9959894310315418</v>
+      </c>
+      <c r="Q10">
+        <v>0.2258613072937778</v>
+      </c>
+      <c r="R10">
+        <v>2.032751765644</v>
+      </c>
+      <c r="S10">
+        <v>0.0002583594309337948</v>
+      </c>
+      <c r="T10">
+        <v>0.0002583594309337947</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.1030903333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.309271</v>
+      </c>
+      <c r="I11">
+        <v>0.0007968852300522433</v>
+      </c>
+      <c r="J11">
+        <v>0.0007968852300522432</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.01848533333333334</v>
+      </c>
+      <c r="N11">
+        <v>0.05545600000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.002735469863414935</v>
+      </c>
+      <c r="P11">
+        <v>0.002735469863414935</v>
+      </c>
+      <c r="Q11">
+        <v>0.001905659175111111</v>
+      </c>
+      <c r="R11">
+        <v>0.017150932576</v>
+      </c>
+      <c r="S11">
+        <v>2.17985553140839E-06</v>
+      </c>
+      <c r="T11">
+        <v>2.179855531408389E-06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.1030903333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.309271</v>
+      </c>
+      <c r="I12">
+        <v>0.0007968852300522433</v>
+      </c>
+      <c r="J12">
+        <v>0.0007968852300522432</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.008616666666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.02585</v>
+      </c>
+      <c r="O12">
+        <v>0.001275099105043207</v>
+      </c>
+      <c r="P12">
+        <v>0.001275099105043207</v>
+      </c>
+      <c r="Q12">
+        <v>0.000888295038888889</v>
+      </c>
+      <c r="R12">
+        <v>0.007994655350000001</v>
+      </c>
+      <c r="S12">
+        <v>1.016107643661765E-06</v>
+      </c>
+      <c r="T12">
+        <v>1.016107643661765E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.1030903333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.309271</v>
+      </c>
+      <c r="I13">
+        <v>0.0007968852300522433</v>
+      </c>
+      <c r="J13">
+        <v>0.0007968852300522432</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.730542666666667</v>
+      </c>
+      <c r="N13">
+        <v>20.191628</v>
+      </c>
+      <c r="O13">
+        <v>0.9959894310315418</v>
+      </c>
+      <c r="P13">
+        <v>0.9959894310315418</v>
+      </c>
+      <c r="Q13">
+        <v>0.693853887020889</v>
+      </c>
+      <c r="R13">
+        <v>6.244684983188001</v>
+      </c>
+      <c r="S13">
+        <v>0.0007936892668771731</v>
+      </c>
+      <c r="T13">
+        <v>0.000793689266877173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>34.2417632381682</v>
-      </c>
-      <c r="H4">
-        <v>34.2417632381682</v>
-      </c>
-      <c r="I4">
-        <v>0.2888460361009108</v>
-      </c>
-      <c r="J4">
-        <v>0.2888460361009108</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>4.30546451893599</v>
-      </c>
-      <c r="N4">
-        <v>4.30546451893599</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>147.4266966877399</v>
-      </c>
-      <c r="R4">
-        <v>147.4266966877399</v>
-      </c>
-      <c r="S4">
-        <v>0.2888460361009108</v>
-      </c>
-      <c r="T4">
-        <v>0.2888460361009108</v>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.008067</v>
+      </c>
+      <c r="H14">
+        <v>0.024201</v>
+      </c>
+      <c r="I14">
+        <v>6.235767159705999E-05</v>
+      </c>
+      <c r="J14">
+        <v>6.235767159705999E-05</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.01848533333333334</v>
+      </c>
+      <c r="N14">
+        <v>0.05545600000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.002735469863414935</v>
+      </c>
+      <c r="P14">
+        <v>0.002735469863414935</v>
+      </c>
+      <c r="Q14">
+        <v>0.000149121184</v>
+      </c>
+      <c r="R14">
+        <v>0.001342090656</v>
+      </c>
+      <c r="S14">
+        <v>1.705775314064831E-07</v>
+      </c>
+      <c r="T14">
+        <v>1.705775314064831E-07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.008067</v>
+      </c>
+      <c r="H15">
+        <v>0.024201</v>
+      </c>
+      <c r="I15">
+        <v>6.235767159705999E-05</v>
+      </c>
+      <c r="J15">
+        <v>6.235767159705999E-05</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.008616666666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.02585</v>
+      </c>
+      <c r="O15">
+        <v>0.001275099105043207</v>
+      </c>
+      <c r="P15">
+        <v>0.001275099105043207</v>
+      </c>
+      <c r="Q15">
+        <v>6.951064999999999E-05</v>
+      </c>
+      <c r="R15">
+        <v>0.00062559585</v>
+      </c>
+      <c r="S15">
+        <v>7.951221124598937E-08</v>
+      </c>
+      <c r="T15">
+        <v>7.951221124598938E-08</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.008067</v>
+      </c>
+      <c r="H16">
+        <v>0.024201</v>
+      </c>
+      <c r="I16">
+        <v>6.235767159705999E-05</v>
+      </c>
+      <c r="J16">
+        <v>6.235767159705999E-05</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>6.730542666666667</v>
+      </c>
+      <c r="N16">
+        <v>20.191628</v>
+      </c>
+      <c r="O16">
+        <v>0.9959894310315418</v>
+      </c>
+      <c r="P16">
+        <v>0.9959894310315418</v>
+      </c>
+      <c r="Q16">
+        <v>0.054295287692</v>
+      </c>
+      <c r="R16">
+        <v>0.4886575892280001</v>
+      </c>
+      <c r="S16">
+        <v>6.210758185440752E-05</v>
+      </c>
+      <c r="T16">
+        <v>6.210758185440752E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>39.03529933333333</v>
+      </c>
+      <c r="H17">
+        <v>117.105898</v>
+      </c>
+      <c r="I17">
+        <v>0.3017417102418414</v>
+      </c>
+      <c r="J17">
+        <v>0.3017417102418414</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.01848533333333334</v>
+      </c>
+      <c r="N17">
+        <v>0.05545600000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.002735469863414935</v>
+      </c>
+      <c r="P17">
+        <v>0.002735469863414935</v>
+      </c>
+      <c r="Q17">
+        <v>0.7215805199431112</v>
+      </c>
+      <c r="R17">
+        <v>6.494224679488</v>
+      </c>
+      <c r="S17">
+        <v>0.000825405354901839</v>
+      </c>
+      <c r="T17">
+        <v>0.0008254053549018388</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>39.03529933333333</v>
+      </c>
+      <c r="H18">
+        <v>117.105898</v>
+      </c>
+      <c r="I18">
+        <v>0.3017417102418414</v>
+      </c>
+      <c r="J18">
+        <v>0.3017417102418414</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.008616666666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.02585</v>
+      </c>
+      <c r="O18">
+        <v>0.001275099105043207</v>
+      </c>
+      <c r="P18">
+        <v>0.001275099105043207</v>
+      </c>
+      <c r="Q18">
+        <v>0.3363541625888889</v>
+      </c>
+      <c r="R18">
+        <v>3.0271874633</v>
+      </c>
+      <c r="S18">
+        <v>0.0003847505846835786</v>
+      </c>
+      <c r="T18">
+        <v>0.0003847505846835786</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>39.03529933333333</v>
+      </c>
+      <c r="H19">
+        <v>117.105898</v>
+      </c>
+      <c r="I19">
+        <v>0.3017417102418414</v>
+      </c>
+      <c r="J19">
+        <v>0.3017417102418414</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>6.730542666666667</v>
+      </c>
+      <c r="N19">
+        <v>20.191628</v>
+      </c>
+      <c r="O19">
+        <v>0.9959894310315418</v>
+      </c>
+      <c r="P19">
+        <v>0.9959894310315418</v>
+      </c>
+      <c r="Q19">
+        <v>262.7287476691049</v>
+      </c>
+      <c r="R19">
+        <v>2364.558729021944</v>
+      </c>
+      <c r="S19">
+        <v>0.300531554302256</v>
+      </c>
+      <c r="T19">
+        <v>0.3005315543022559</v>
       </c>
     </row>
   </sheetData>
